--- a/lab02.xlsx
+++ b/lab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\other\Education\ib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F15866-CD9D-4322-8C6D-4A819F995765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C27055-684E-4B9A-9BDD-A3748511F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>ПАО "Совкомбанк"</t>
   </si>
@@ -799,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1162,6 +1162,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1172,11 +1186,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524D53D4-394F-4A19-A5F4-CA078B3C17B0}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="99.7109375" style="13" customWidth="1"/>
@@ -1188,7 +1202,7 @@
     <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1202,13 +1216,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1239,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1256,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1273,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1290,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1307,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -1456,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.25">
@@ -1470,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.25">
@@ -1542,11 +1556,11 @@
       </c>
       <c r="C24" s="30">
         <f t="shared" ref="C24:D24" si="0">SUM(C3:C23)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="31">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/lab02.xlsx
+++ b/lab02.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\other\Education\ib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C27055-684E-4B9A-9BDD-A3748511F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B46B35-95ED-4B22-B062-522B06C17983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="банки" sheetId="1" r:id="rId1"/>
+    <sheet name="подсчет очков" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -802,8 +802,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
